--- a/ftest/data/fm4/Worked_example_policy_calculation_2.xlsx
+++ b/ftest/data/fm4/Worked_example_policy_calculation_2.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\2 Working Parties\Financial Module\Worked examples for public\01 Final\Worked_example_policy_calculation_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{77D732CE-1572-4047-9345-241B52D8061B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18960" windowHeight="8655"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18960" windowHeight="8652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="13" r:id="rId1"/>
     <sheet name="Policy Calculation" sheetId="11" r:id="rId2"/>
-    <sheet name="Oasis Implementation" sheetId="12" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Limit</t>
   </si>
@@ -191,124 +191,10 @@
     <t>The Insurer is protected from small claims by the deductible and has a maximum exposure of the sum of the individual or combined limits.</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Meta data structure (Profile)</t>
-  </si>
-  <si>
-    <t>ProfileDescription</t>
-  </si>
-  <si>
-    <t>ProfileName</t>
-  </si>
-  <si>
-    <t>ProfileID</t>
-  </si>
-  <si>
-    <t>CalcRule</t>
-  </si>
-  <si>
-    <t>AllocRule</t>
-  </si>
-  <si>
-    <t>A_1</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Attributes</t>
-  </si>
-  <si>
-    <t>PolicyTC_ID</t>
-  </si>
-  <si>
-    <t>CCY_ID</t>
-  </si>
-  <si>
-    <t>PROG_ID</t>
-  </si>
-  <si>
-    <t>Prog (User defined)</t>
-  </si>
-  <si>
-    <t>ITEM_ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Location 1 Structure</t>
-  </si>
-  <si>
-    <t>Location 1 Contents</t>
-  </si>
-  <si>
-    <t>Location 1 Other Structure</t>
-  </si>
-  <si>
-    <t>Location 1 Time Element</t>
-  </si>
-  <si>
-    <t>Exposure Dictionary (User defined)</t>
-  </si>
-  <si>
-    <t>Deductible and Limit</t>
-  </si>
-  <si>
-    <t>ACCOUNT_ID</t>
-  </si>
-  <si>
-    <t>PROG_NAME</t>
-  </si>
-  <si>
-    <t>Programme</t>
-  </si>
-  <si>
-    <t>Oasis Data tables</t>
-  </si>
-  <si>
-    <t>AGG_ID</t>
-  </si>
-  <si>
-    <t>PolicyTC</t>
-  </si>
-  <si>
-    <t>LAYER_ID</t>
-  </si>
-  <si>
-    <t>POLICYTC_ID</t>
-  </si>
-  <si>
-    <t>AREAPERIL_ID</t>
-  </si>
-  <si>
-    <t>VULNERABILITY_ID</t>
-  </si>
-  <si>
-    <t>TIV</t>
-  </si>
-  <si>
     <t>IL = Sum(S2)</t>
   </si>
   <si>
     <t>GUL = V * DR</t>
-  </si>
-  <si>
-    <t>Exposure item file</t>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-  </si>
-  <si>
-    <t>Exposures</t>
-  </si>
-  <si>
-    <t>Financial Module</t>
-  </si>
-  <si>
-    <t>Profile A_1</t>
   </si>
   <si>
     <t>S1 = Max(GUL-D,0)</t>
@@ -521,59 +407,23 @@
     <t>Property</t>
   </si>
   <si>
-    <t xml:space="preserve">Residential policy with multiple coverages and combined property coverage terms. </t>
-  </si>
-  <si>
     <t>Made-up example of a residential insurance policy;</t>
   </si>
   <si>
     <t>Insured Loss</t>
   </si>
   <si>
-    <t>CALCRULE_ID</t>
-  </si>
-  <si>
-    <t>ALLOCRULE_ID</t>
-  </si>
-  <si>
-    <t>SOURCERULE_ID</t>
-  </si>
-  <si>
-    <t>LEVELRULE_ID</t>
-  </si>
-  <si>
-    <t>DED</t>
-  </si>
-  <si>
-    <t>LIM</t>
-  </si>
-  <si>
-    <t>SHARE_PROP_OF_LIM</t>
-  </si>
-  <si>
-    <t>DEDUCTIBLE_PROP_OF_LOSS</t>
-  </si>
-  <si>
-    <t>LIMIT_PROP_OF_LOSS</t>
-  </si>
-  <si>
-    <t>DEDUCTIBLE_PROP_OF_TIV</t>
-  </si>
-  <si>
-    <t>LIMIT_PROP_OF_TIV</t>
-  </si>
-  <si>
-    <t>DEDUCTIBLE_PROP_OF_LIMIT</t>
-  </si>
-  <si>
-    <t>LEVEL_ID</t>
+    <t>Back-allocation allocrule 1 (GU)</t>
+  </si>
+  <si>
+    <t>Back-allocation allocrule 2 (Prior Level)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,13 +507,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -678,64 +521,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -824,7 +615,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -859,7 +650,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -872,33 +662,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -907,33 +699,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -943,19 +708,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,6 +827,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1094,6 +879,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1269,132 +1071,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q21" s="25"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="52" t="s">
-        <v>103</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="32" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" location="'Policy Calculation'!A1" display="Policy calculation"/>
-    <hyperlink ref="A15" location="'Oasis Implementation'!A1" display="Oasis Implementation"/>
+    <hyperlink ref="A13" location="'Policy Calculation'!A1" display="Policy calculation" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A15" location="'Oasis Implementation'!A1" display="Oasis Implementation" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1402,58 +1204,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="84" zoomScaleNormal="84" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="15.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1469,7 +1273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1477,7 +1281,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1485,7 +1289,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +1297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1501,7 +1305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1509,7 +1313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1517,7 +1321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1525,77 +1329,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +1417,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="3"/>
       <c r="C35" s="10"/>
@@ -1629,17 +1433,17 @@
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -1647,31 +1451,31 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+    <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="50" t="s">
+      <c r="E37" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="F37" s="30" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="7"/>
-      <c r="H37" s="44"/>
+      <c r="H37" s="24"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
+    <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="7"/>
@@ -1680,229 +1484,271 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="44"/>
-    </row>
-    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
+      <c r="H38" s="24"/>
+    </row>
+    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>1000000</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>100000</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>50000</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>20000</v>
       </c>
       <c r="G39" s="7"/>
-      <c r="H39" s="44"/>
-    </row>
-    <row r="40" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="s">
+      <c r="H39" s="24"/>
+    </row>
+    <row r="40" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="13"/>
+        <v>77</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="44"/>
-    </row>
-    <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
+      <c r="H40" s="24"/>
+    </row>
+    <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="59">
+      <c r="C41" s="40">
         <v>1000</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="14">
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="13">
         <v>2000</v>
       </c>
       <c r="G41" s="7"/>
-      <c r="H41" s="44"/>
-    </row>
-    <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
+      <c r="H41" s="24"/>
+    </row>
+    <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="59">
+      <c r="C42" s="40">
         <v>1000000</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="14">
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="13">
         <v>18000</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="44"/>
-    </row>
-    <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25"/>
       <c r="B43" s="7"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="44"/>
-    </row>
-    <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="H43" s="24"/>
+    </row>
+    <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="44"/>
-    </row>
-    <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="14">
         <v>0.1</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <v>0.1</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <v>0.05</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="14">
         <v>0.02</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="44"/>
-    </row>
-    <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
+      <c r="H45" s="24"/>
+    </row>
+    <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="25"/>
       <c r="B46" s="7"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="44"/>
-    </row>
-    <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="48" t="s">
+      <c r="H46" s="24"/>
+    </row>
+    <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="58" t="s">
+      <c r="H47" s="38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+    <row r="48" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="13">
+        <v>57</v>
+      </c>
+      <c r="C48" s="12">
         <f>C45*C39</f>
         <v>100000</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="12">
         <f t="shared" ref="D48:F48" si="0">D45*D39</f>
         <v>10000</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="12">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="12">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="54"/>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45" t="s">
+      <c r="H48" s="34"/>
+    </row>
+    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="60">
+        <v>58</v>
+      </c>
+      <c r="C49" s="41">
         <f>MAX(SUM(C48:E48)-C41,0)</f>
         <v>111500</v>
       </c>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="13">
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="12">
         <f>MAX(F48-F41,0)</f>
         <v>0</v>
       </c>
       <c r="G49" s="7"/>
-      <c r="H49" s="54"/>
-    </row>
-    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
+      <c r="H49" s="34"/>
+    </row>
+    <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="60">
+        <v>59</v>
+      </c>
+      <c r="C50" s="41">
         <f>IF(C42=0,C49,MIN(C49,C42))</f>
         <v>111500</v>
       </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="13">
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="12">
         <f>MIN(F49,F42)</f>
         <v>0</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="H50" s="54"/>
-    </row>
-    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="57">
+      <c r="H50" s="34"/>
+    </row>
+    <row r="51" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="37">
         <f>SUM(C50:F50)</f>
         <v>111500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="39">
+        <f>$C$50*C48/SUM($C$48:$E$48)</f>
+        <v>99111.111111111109</v>
+      </c>
+      <c r="D53" s="39">
+        <f t="shared" ref="D53:E53" si="1">$C$50*D48/SUM($C$48:$E$48)</f>
+        <v>9911.1111111111113</v>
+      </c>
+      <c r="E53" s="39">
+        <f t="shared" si="1"/>
+        <v>2477.7777777777778</v>
+      </c>
+      <c r="F53" s="39">
+        <f>$F$50*F47/SUM($F$48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="39">
+        <f>$C$50*C48/SUM($C$48:$E$48)</f>
+        <v>99111.111111111109</v>
+      </c>
+      <c r="D54" s="39">
+        <f t="shared" ref="D54:E54" si="2">$C$50*D48/SUM($C$48:$E$48)</f>
+        <v>9911.1111111111113</v>
+      </c>
+      <c r="E54" s="39">
+        <f t="shared" si="2"/>
+        <v>2477.7777777777778</v>
+      </c>
+      <c r="F54" s="39">
+        <f>$F$50*F48/SUM($F$48)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1919,564 +1765,4 @@
     <oddFooter>&amp;L&amp;D&amp;C&amp;P&amp;R&amp;F&amp; &amp;&amp;[Tab]</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:N44"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="34"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="28">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="28">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>1</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1000000</v>
-      </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
-        <v>2</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="23"/>
-      <c r="E20" s="19">
-        <v>2</v>
-      </c>
-      <c r="F20" s="19">
-        <v>1</v>
-      </c>
-      <c r="G20" s="19">
-        <v>2</v>
-      </c>
-      <c r="H20" s="19">
-        <v>100000</v>
-      </c>
-      <c r="I20" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>3</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="E21" s="19">
-        <v>3</v>
-      </c>
-      <c r="F21" s="19">
-        <v>1</v>
-      </c>
-      <c r="G21" s="19">
-        <v>3</v>
-      </c>
-      <c r="H21" s="19">
-        <v>50000</v>
-      </c>
-      <c r="I21" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
-        <v>4</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="E22" s="19">
-        <v>4</v>
-      </c>
-      <c r="F22" s="19">
-        <v>1</v>
-      </c>
-      <c r="G22" s="19">
-        <v>4</v>
-      </c>
-      <c r="H22" s="19">
-        <v>20000</v>
-      </c>
-      <c r="I22" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>1</v>
-      </c>
-      <c r="B27" s="19">
-        <v>1</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>1</v>
-      </c>
-      <c r="B31" s="19">
-        <v>1</v>
-      </c>
-      <c r="C31" s="19">
-        <v>1</v>
-      </c>
-      <c r="D31" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
-        <v>1</v>
-      </c>
-      <c r="B32" s="19">
-        <v>2</v>
-      </c>
-      <c r="C32" s="19">
-        <v>1</v>
-      </c>
-      <c r="D32" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
-        <v>1</v>
-      </c>
-      <c r="B33" s="19">
-        <v>3</v>
-      </c>
-      <c r="C33" s="19">
-        <v>1</v>
-      </c>
-      <c r="D33" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
-        <v>1</v>
-      </c>
-      <c r="B34" s="19">
-        <v>4</v>
-      </c>
-      <c r="C34" s="19">
-        <v>1</v>
-      </c>
-      <c r="D34" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
-        <v>1</v>
-      </c>
-      <c r="B38" s="19">
-        <v>1</v>
-      </c>
-      <c r="C38" s="19">
-        <v>1</v>
-      </c>
-      <c r="D38" s="19">
-        <v>1</v>
-      </c>
-      <c r="E38" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
-        <v>1</v>
-      </c>
-      <c r="B39" s="19">
-        <v>1</v>
-      </c>
-      <c r="C39" s="19">
-        <v>1</v>
-      </c>
-      <c r="D39" s="19">
-        <v>2</v>
-      </c>
-      <c r="E39" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="M42" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
-        <v>1</v>
-      </c>
-      <c r="B43" s="19">
-        <v>1</v>
-      </c>
-      <c r="C43" s="19">
-        <v>0</v>
-      </c>
-      <c r="D43" s="19">
-        <v>0</v>
-      </c>
-      <c r="E43" s="19">
-        <v>0</v>
-      </c>
-      <c r="F43" s="19">
-        <v>2</v>
-      </c>
-      <c r="G43" s="19">
-        <v>1000</v>
-      </c>
-      <c r="H43" s="19">
-        <v>1000000</v>
-      </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
-        <v>2</v>
-      </c>
-      <c r="B44" s="19">
-        <v>1</v>
-      </c>
-      <c r="C44" s="19">
-        <v>0</v>
-      </c>
-      <c r="D44" s="19">
-        <v>0</v>
-      </c>
-      <c r="E44" s="19">
-        <v>0</v>
-      </c>
-      <c r="F44" s="19">
-        <v>2</v>
-      </c>
-      <c r="G44" s="19">
-        <v>2000</v>
-      </c>
-      <c r="H44" s="19">
-        <v>18000</v>
-      </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>